--- a/for_smartphone/systems/base.xlsx
+++ b/for_smartphone/systems/base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolke\git1009\new_system\systems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\mypj\mypj2\mypj\for_smartphone\systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53148DF3-C364-4937-A555-2DB8AFCD789A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E8C798-CDA2-4637-A3D8-5597CCA9D354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーステータス" sheetId="2" r:id="rId1"/>
@@ -1676,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
@@ -1817,7 +1817,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -17700,7 +17700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
